--- a/doc/General.xlsx
+++ b/doc/General.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="630" yWindow="600" windowWidth="14055" windowHeight="10935"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>General</t>
   </si>
@@ -22,12 +25,6 @@
     <t>bigint</t>
   </si>
   <si>
-    <t>created_by</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -67,18 +64,12 @@
     <t>char 3</t>
   </si>
   <si>
-    <t>yes no</t>
-  </si>
-  <si>
     <t>file</t>
   </si>
   <si>
     <t>varchar 255</t>
   </si>
   <si>
-    <t>x...x_at</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -125,19 +116,24 @@
   </si>
   <si>
     <t>Messages</t>
+  </si>
+  <si>
+    <t>Yes No</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>at</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -147,9 +143,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -162,231 +156,514 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" r="A3">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" r="A4">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" r="A5">
-        <v>4</v>
-      </c>
-      <c t="s" r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" r="A6">
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" r="A7">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" r="A8">
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="B8">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c t="s" r="A10">
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="B10">
-        <v>9</v>
-      </c>
-      <c t="s" r="C10">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11">
-      <c t="s" r="A11">
+    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="B11">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12">
-      <c t="s" r="A12">
+    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="B12">
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13">
-      <c t="s" r="A13">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="B13">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="C13">
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16">
-      <c t="s" r="A16">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="B16">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17">
-      <c t="s" r="A17">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="B17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c t="s" r="A18">
+    </row>
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="B18">
+      <c r="C19" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19">
-      <c t="s" r="A19">
-        <v>23</v>
-      </c>
-      <c t="s" r="B19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20">
-      <c t="s" r="A20">
+      <c r="C21" s="1">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="B20">
+    </row>
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21">
-      <c t="s" r="A21">
-        <v>8</v>
-      </c>
-      <c t="s" r="B21">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c s="1" r="C21">
+    </row>
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22">
-      <c s="1" r="C22"/>
-    </row>
-    <row r="23">
-      <c t="s" r="A23">
-        <v>27</v>
-      </c>
-      <c t="s" r="B23">
-        <v>26</v>
-      </c>
-      <c s="1" r="C23">
-        <v>32</v>
-      </c>
-      <c t="s" r="D23">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24">
-      <c t="s" r="D24">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25">
-      <c t="s" r="D25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26">
-      <c t="s" r="D26">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27">
-      <c t="s" r="D27">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28">
-      <c t="s" r="A28">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30">
-      <c t="s" r="A30">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32">
-      <c t="s" r="A32">
-        <v>35</v>
-      </c>
-      <c t="s" r="B32">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34">
-      <c t="s" r="A34">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>